--- a/src/main/resources/tp/_export_cg_result.xlsx
+++ b/src/main/resources/tp/_export_cg_result.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95425E7-84DE-492E-83F6-3CCAF64E959F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C2DD72-8E30-4438-A72F-4FEDCB3CDB03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="核验结果" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>数据源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{$fe:list1 t.properties.dataChannel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t.name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +119,14 @@
   </si>
   <si>
     <t>t.remark}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:list t.properties.dataChannel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,39 +579,44 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
         <v>23</v>
       </c>
     </row>

--- a/src/main/resources/tp/_export_cg_result.xlsx
+++ b/src/main/resources/tp/_export_cg_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C2DD72-8E30-4438-A72F-4FEDCB3CDB03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DC54C7-3244-44DA-B3D2-A01A6F591D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>数据源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,10 +119,6 @@
   </si>
   <si>
     <t>t.remark}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -528,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -579,7 +575,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -613,11 +609,6 @@
       </c>
       <c r="L2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
